--- a/grace-data/group/foreign/sh/foreign-sh-20210126.xlsx
+++ b/grace-data/group/foreign/sh/foreign-sh-20210126.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neozheng\iCloudDrive\Grace\grace-2021-foreign-data\sh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\grace-web\grace-data\group\foreign\sh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED7AA7-4AC9-426D-A024-D5A963FAE006}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C491639-A18A-4F43-80E9-040715DF7F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="3750" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3181,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E944"/>
+  <dimension ref="A1:E943"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A926" workbookViewId="0">
+      <selection activeCell="E949" sqref="E949"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19224,10 +19224,6 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C944" s="1"/>
-      <c r="D944" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
